--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Documents\CENTRALE\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A900FBEC-B55F-40FB-9B69-43C3A5B12D9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="50370" yWindow="5490" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>System</t>
   </si>
@@ -57,16 +63,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name of the part</t>
-  </si>
-  <si>
-    <t>m or b</t>
-  </si>
-  <si>
     <t>Short description of the part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
   </si>
   <si>
     <r>
@@ -158,11 +155,230 @@
   <si>
     <t>Throttle body</t>
   </si>
+  <si>
+    <t>Exhaust header n°1</t>
+  </si>
+  <si>
+    <t>Exhaust header n°2</t>
+  </si>
+  <si>
+    <t>Exhaust header n°3</t>
+  </si>
+  <si>
+    <t>Exhaust header n°4</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Flat-bottomed</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Tubing collector</t>
+  </si>
+  <si>
+    <t>Muffler</t>
+  </si>
+  <si>
+    <t>EN_02007</t>
+  </si>
+  <si>
+    <t>EN_02008</t>
+  </si>
+  <si>
+    <t>EN_02009</t>
+  </si>
+  <si>
+    <t>EN_02010</t>
+  </si>
+  <si>
+    <t>Reduce noise</t>
+  </si>
+  <si>
+    <t>Coupling sleeve</t>
+  </si>
+  <si>
+    <t>Plaque pair</t>
+  </si>
+  <si>
+    <t>EN_03007</t>
+  </si>
+  <si>
+    <t>Collect gas from the primary collectors</t>
+  </si>
+  <si>
+    <t>Collect gas from the 1st cylinder</t>
+  </si>
+  <si>
+    <t>Collect gas from the 2nd cylinder</t>
+  </si>
+  <si>
+    <t>Collect gas from the 3rd cylinder</t>
+  </si>
+  <si>
+    <t>Collect gas from the 4th cylinder</t>
+  </si>
+  <si>
+    <t>EN_04007</t>
+  </si>
+  <si>
+    <t>EN_04008</t>
+  </si>
+  <si>
+    <t>EN_04009</t>
+  </si>
+  <si>
+    <t>EN_04010</t>
+  </si>
+  <si>
+    <t>EN_04011</t>
+  </si>
+  <si>
+    <t>EN_04012</t>
+  </si>
+  <si>
+    <t>Inferior plate</t>
+  </si>
+  <si>
+    <t>Front stop plate</t>
+  </si>
+  <si>
+    <t>Rear stop plate</t>
+  </si>
+  <si>
+    <t>Medium plate</t>
+  </si>
+  <si>
+    <t>Superior plate</t>
+  </si>
+  <si>
+    <t>Sheet of join</t>
+  </si>
+  <si>
+    <t>Stop the translation of the moving plate</t>
+  </si>
+  <si>
+    <t>Moving plate</t>
+  </si>
+  <si>
+    <t>Above the moving plate</t>
+  </si>
+  <si>
+    <t>Air restrictor</t>
+  </si>
+  <si>
+    <t>Air filter</t>
+  </si>
+  <si>
+    <t>Filter the air which goes to the engine</t>
+  </si>
+  <si>
+    <t>Convergent</t>
+  </si>
+  <si>
+    <t>Extremal plates to the front stop plate</t>
+  </si>
+  <si>
+    <t>Extremal plates to the rear stop plate</t>
+  </si>
+  <si>
+    <t>Ring spacer</t>
+  </si>
+  <si>
+    <t>For the throttle sensor</t>
+  </si>
+  <si>
+    <t>Frame mounting tube</t>
+  </si>
+  <si>
+    <t>Engine mounting tube</t>
+  </si>
+  <si>
+    <t>EN_03008</t>
+  </si>
+  <si>
+    <t>EN_03009</t>
+  </si>
+  <si>
+    <t>EN_03010</t>
+  </si>
+  <si>
+    <t>Flat-bottomed and tubing collector</t>
+  </si>
+  <si>
+    <t>Air intake and throttle body</t>
+  </si>
+  <si>
+    <t>Fasten the air intake to the frame</t>
+  </si>
+  <si>
+    <t>Fasten the air intake to the engine</t>
+  </si>
+  <si>
+    <t>1st tubing collector n°1</t>
+  </si>
+  <si>
+    <t>1st tubing collector n°2</t>
+  </si>
+  <si>
+    <t>2nd tubing collector</t>
+  </si>
+  <si>
+    <t>Collect gas from exhaust header 2 and 3</t>
+  </si>
+  <si>
+    <t>Collect gas from exhaust header 1 and 4</t>
+  </si>
+  <si>
+    <t>Join the engine to the collector</t>
+  </si>
+  <si>
+    <t>Muffler clamp</t>
+  </si>
+  <si>
+    <t>Extremal plates to the convergent</t>
+  </si>
+  <si>
+    <t>Link up the air filter to the guillotine</t>
+  </si>
+  <si>
+    <t>Under the moving plate</t>
+  </si>
+  <si>
+    <t>Under the air manifold</t>
+  </si>
+  <si>
+    <t>Air manifold</t>
+  </si>
+  <si>
+    <t>Air manifold and flat-bottomed</t>
+  </si>
+  <si>
+    <t>Link up the guillotine to the air intake</t>
+  </si>
+  <si>
+    <t>Joint gaskets</t>
+  </si>
+  <si>
+    <t>Under the restrictor</t>
+  </si>
+  <si>
+    <t>Link up the flat-bottomed to the engine</t>
+  </si>
+  <si>
+    <t>Link up the air intake to the engine</t>
+  </si>
+  <si>
+    <t>Fasten the mufler to the frame</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -297,6 +513,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,27 +796,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="52.54296875" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -620,391 +839,933 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <f>LEN(C3)</f>
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <f>LEN(E3)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
+        <v>52</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I39" si="0">LEN(C4)</f>
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J39" si="1">LEN(E4)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
+        <v>91</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
+        <v>92</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>9</v>
+        <v>102</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>9</v>
+        <v>104</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>9</v>
+        <v>86</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>9</v>
+        <v>99</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>9</v>
+        <v>83</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Documents\CENTRALE\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A900FBEC-B55F-40FB-9B69-43C3A5B12D9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52414B1-4E63-4CF9-ADF5-10023E61657E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50370" yWindow="5490" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Short description of the part</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Part </t>
     </r>
@@ -201,9 +198,6 @@
     <t>Coupling sleeve</t>
   </si>
   <si>
-    <t>Plaque pair</t>
-  </si>
-  <si>
     <t>EN_03007</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>EN_03009</t>
   </si>
   <si>
-    <t>EN_03010</t>
-  </si>
-  <si>
     <t>Flat-bottomed and tubing collector</t>
   </si>
   <si>
@@ -373,6 +364,15 @@
   </si>
   <si>
     <t>Fasten the mufler to the frame</t>
+  </si>
+  <si>
+    <t>EN_04013</t>
+  </si>
+  <si>
+    <t>Fasten the air restrictor to the air intake</t>
+  </si>
+  <si>
+    <t>Mounting plate</t>
   </si>
 </sst>
 </file>
@@ -797,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -841,36 +841,36 @@
     </row>
     <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <f>LEN(C3)</f>
@@ -885,26 +885,26 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I39" si="0">LEN(C4)</f>
+        <f t="shared" ref="I4:I38" si="0">LEN(C4)</f>
         <v>18</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J39" si="1">LEN(E4)</f>
+        <f t="shared" ref="J4:J38" si="1">LEN(E4)</f>
         <v>33</v>
       </c>
     </row>
@@ -912,19 +912,19 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
@@ -939,19 +939,19 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
@@ -966,19 +966,19 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -993,19 +993,19 @@
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -1020,19 +1020,19 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
@@ -1047,19 +1047,19 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
@@ -1074,19 +1074,19 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
@@ -1101,19 +1101,19 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
@@ -1126,17 +1126,17 @@
     </row>
     <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
@@ -1151,19 +1151,19 @@
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
@@ -1178,19 +1178,19 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
@@ -1205,19 +1205,19 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
@@ -1232,19 +1232,19 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -1259,19 +1259,19 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -1286,19 +1286,19 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -1313,57 +1313,57 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -1374,67 +1374,67 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>82</v>
+    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -1444,24 +1444,24 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
@@ -1482,13 +1482,13 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1498,24 +1498,24 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -1525,24 +1525,24 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -1552,11 +1552,11 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1566,16 +1566,16 @@
         <v>71</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -1583,30 +1583,30 @@
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F31" s="4">
         <v>1</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
@@ -1617,46 +1617,46 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F33" s="4">
         <v>2</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -1664,26 +1664,26 @@
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -1691,61 +1691,71 @@
       </c>
       <c r="J34">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F35" s="4">
         <v>2</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f t="shared" ref="I36" si="2">LEN(C36)</f>
+        <v>14</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" ref="J36" si="3">LEN(E36)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -1754,16 +1764,6 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clement\Documents\CENTRALE\EPSA\Optimus\STUF2019\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52414B1-4E63-4CF9-ADF5-10023E61657E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>System</t>
   </si>
@@ -198,9 +197,6 @@
     <t>Coupling sleeve</t>
   </si>
   <si>
-    <t>EN_03007</t>
-  </si>
-  <si>
     <t>Collect gas from the primary collectors</t>
   </si>
   <si>
@@ -228,12 +224,6 @@
     <t>EN_04010</t>
   </si>
   <si>
-    <t>EN_04011</t>
-  </si>
-  <si>
-    <t>EN_04012</t>
-  </si>
-  <si>
     <t>Inferior plate</t>
   </si>
   <si>
@@ -249,9 +239,6 @@
     <t>Superior plate</t>
   </si>
   <si>
-    <t>Sheet of join</t>
-  </si>
-  <si>
     <t>Stop the translation of the moving plate</t>
   </si>
   <si>
@@ -273,12 +260,6 @@
     <t>Convergent</t>
   </si>
   <si>
-    <t>Extremal plates to the front stop plate</t>
-  </si>
-  <si>
-    <t>Extremal plates to the rear stop plate</t>
-  </si>
-  <si>
     <t>Ring spacer</t>
   </si>
   <si>
@@ -291,18 +272,6 @@
     <t>Engine mounting tube</t>
   </si>
   <si>
-    <t>EN_03008</t>
-  </si>
-  <si>
-    <t>EN_03009</t>
-  </si>
-  <si>
-    <t>Flat-bottomed and tubing collector</t>
-  </si>
-  <si>
-    <t>Air intake and throttle body</t>
-  </si>
-  <si>
     <t>Fasten the air intake to the frame</t>
   </si>
   <si>
@@ -330,9 +299,6 @@
     <t>Muffler clamp</t>
   </si>
   <si>
-    <t>Extremal plates to the convergent</t>
-  </si>
-  <si>
     <t>Link up the air filter to the guillotine</t>
   </si>
   <si>
@@ -345,9 +311,6 @@
     <t>Air manifold</t>
   </si>
   <si>
-    <t>Air manifold and flat-bottomed</t>
-  </si>
-  <si>
     <t>Link up the guillotine to the air intake</t>
   </si>
   <si>
@@ -364,9 +327,6 @@
   </si>
   <si>
     <t>Fasten the mufler to the frame</t>
-  </si>
-  <si>
-    <t>EN_04013</t>
   </si>
   <si>
     <t>Fasten the air restrictor to the air intake</t>
@@ -378,7 +338,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -796,27 +756,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" customWidth="1"/>
-    <col min="5" max="5" width="52.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -854,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -864,7 +824,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -881,7 +841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -891,7 +851,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -900,15 +860,15 @@
         <v>10</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I38" si="0">LEN(C4)</f>
+        <f t="shared" ref="I4:I32" si="0">LEN(C4)</f>
         <v>18</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J38" si="1">LEN(E4)</f>
+        <f t="shared" ref="J4:J32" si="1">LEN(E4)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -918,7 +878,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -935,7 +895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -945,7 +905,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -962,17 +922,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -989,17 +949,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1016,17 +976,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -1043,17 +1003,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
@@ -1070,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1097,17 +1057,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1124,7 +1084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1147,17 +1107,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1174,7 +1134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1184,7 +1144,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1201,7 +1161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1211,7 +1171,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1228,7 +1188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1238,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -1255,17 +1215,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -1282,17 +1242,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -1309,95 +1269,111 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -1407,24 +1383,24 @@
         <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -1434,94 +1410,94 @@
         <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -1529,241 +1505,79 @@
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" ref="I30" si="2">LEN(C30)</f>
+        <v>14</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>54</v>
-      </c>
+        <f t="shared" ref="J30" si="3">LEN(E30)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="4">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I36">
-        <f t="shared" ref="I36" si="2">LEN(C36)</f>
-        <v>14</v>
-      </c>
-      <c r="J36">
-        <f t="shared" ref="J36" si="3">LEN(E36)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -760,7 +760,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>System</t>
   </si>
@@ -221,9 +221,6 @@
     <t>EN_04009</t>
   </si>
   <si>
-    <t>EN_04010</t>
-  </si>
-  <si>
     <t>Inferior plate</t>
   </si>
   <si>
@@ -260,12 +257,6 @@
     <t>Convergent</t>
   </si>
   <si>
-    <t>Ring spacer</t>
-  </si>
-  <si>
-    <t>For the throttle sensor</t>
-  </si>
-  <si>
     <t>Frame mounting tube</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>Link up the guillotine to the air intake</t>
   </si>
   <si>
-    <t>Joint gaskets</t>
-  </si>
-  <si>
     <t>Under the restrictor</t>
   </si>
   <si>
@@ -333,6 +321,9 @@
   </si>
   <si>
     <t>Mounting plate</t>
+  </si>
+  <si>
+    <t>Exhaust flange</t>
   </si>
 </sst>
 </file>
@@ -757,11 +748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="I1:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +767,7 @@
     <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -814,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -832,16 +823,8 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3">
-        <f>LEN(C3)</f>
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <f>LEN(E3)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -859,16 +842,8 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I32" si="0">LEN(C4)</f>
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J32" si="1">LEN(E4)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -886,16 +861,8 @@
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -913,26 +880,18 @@
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -940,26 +899,18 @@
       <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -967,20 +918,12 @@
       <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>38</v>
@@ -994,26 +937,18 @@
       <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
@@ -1021,16 +956,8 @@
       <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1048,26 +975,18 @@
       <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1075,16 +994,8 @@
       <c r="G12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1098,26 +1009,18 @@
       <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1125,16 +1028,8 @@
       <c r="G14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1144,7 +1039,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1152,16 +1047,8 @@
       <c r="G15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1171,7 +1058,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -1179,16 +1066,8 @@
       <c r="G16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1198,7 +1077,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
@@ -1206,26 +1085,18 @@
       <c r="G17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -1233,26 +1104,18 @@
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
@@ -1260,16 +1123,8 @@
       <c r="G19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1283,26 +1138,18 @@
       <c r="G20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1310,26 +1157,18 @@
       <c r="G21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1337,26 +1176,18 @@
       <c r="G22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1364,26 +1195,18 @@
       <c r="G23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -1391,26 +1214,18 @@
       <c r="G24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
@@ -1418,26 +1233,18 @@
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
@@ -1445,26 +1252,18 @@
       <c r="G26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1472,26 +1271,18 @@
       <c r="G27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -1499,87 +1290,24 @@
       <c r="G28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ref="I30" si="2">LEN(C30)</f>
-        <v>14</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ref="J30" si="3">LEN(E30)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,9 +80,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>EN_A0002</t>
-  </si>
-  <si>
     <t>EN_02001</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>EN_02006</t>
   </si>
   <si>
-    <t>EN_A0003</t>
-  </si>
-  <si>
     <t>EN_03001</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>EN_03006</t>
   </si>
   <si>
-    <t>EN_A0004</t>
-  </si>
-  <si>
     <t>EN_04001</t>
   </si>
   <si>
@@ -324,6 +315,15 @@
   </si>
   <si>
     <t>Exhaust flange</t>
+  </si>
+  <si>
+    <t>EN_A0200</t>
+  </si>
+  <si>
+    <t>EN_A0300</t>
+  </si>
+  <si>
+    <t>EN_A0400</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K33" sqref="I1:K33"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,204 +795,204 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1000,128 +1000,128 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4">
         <v>2</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -1129,185 +1129,185 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F29" s="4">
         <v>2</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="EN_A0200" sheetId="2" r:id="rId2"/>
+    <sheet name="EN_A0300" sheetId="3" r:id="rId3"/>
+    <sheet name="EN_A0400" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="106">
   <si>
     <t>System</t>
   </si>
@@ -325,12 +328,60 @@
   <si>
     <t>EN_A0400</t>
   </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Assembly Processes</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>To be completed</t>
+  </si>
+  <si>
+    <t>Tba</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Fasteners</t>
+  </si>
+  <si>
+    <t>Tooling</t>
+  </si>
+  <si>
+    <t>EN - Exhaust system</t>
+  </si>
+  <si>
+    <t>EN_A0200_P</t>
+  </si>
+  <si>
+    <t>EN_A0300_P</t>
+  </si>
+  <si>
+    <t>EN - Air intake system</t>
+  </si>
+  <si>
+    <t>EN_A0400_P</t>
+  </si>
+  <si>
+    <t>EN - Throttle body</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +424,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +466,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -449,11 +528,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -467,6 +559,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,9 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,4 +1421,1099 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CR - Cost Report\BOM\EN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optimus_2019\STUF2019\CR - Cost Report\BOM\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFAC6B4-748D-475E-AABB-B5689F522290}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="EN_A0300" sheetId="3" r:id="rId3"/>
     <sheet name="EN_A0400" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="311">
   <si>
     <t>System</t>
   </si>
@@ -378,9 +377,6 @@
     <t>Bolt grade 8.8</t>
   </si>
   <si>
-    <t>Nombre caractère</t>
-  </si>
-  <si>
     <t>Ensure the sealing with the engine</t>
   </si>
   <si>
@@ -414,9 +410,6 @@
     <t>Washer, copper</t>
   </si>
   <si>
-    <t>Size : M6</t>
-  </si>
-  <si>
     <t>Aluminium, 2017A</t>
   </si>
   <si>
@@ -472,9 +465,6 @@
   </si>
   <si>
     <t>Steel welding</t>
-  </si>
-  <si>
-    <t>Tube welding together</t>
   </si>
   <si>
     <t>Preparing before welding</t>
@@ -816,9 +806,6 @@
     <t>Burring</t>
   </si>
   <si>
-    <t>Burring preparing</t>
-  </si>
-  <si>
     <t>Medium plate burring</t>
   </si>
   <si>
@@ -834,9 +821,6 @@
     <t>25CD4</t>
   </si>
   <si>
-    <t>Exhaust tip welding to exhaust header</t>
-  </si>
-  <si>
     <t>172°, r=55mm, l=165,1mm</t>
   </si>
   <si>
@@ -880,13 +864,187 @@
   </si>
   <si>
     <t>M6, bought with the engine</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Programming the exhaust tip machining</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Metrology of the exhaust tip</t>
+  </si>
+  <si>
+    <t>Nb de tube et coude</t>
+  </si>
+  <si>
+    <t>Nb de soudure</t>
+  </si>
+  <si>
+    <t>Tubes welding together</t>
+  </si>
+  <si>
+    <t>To do the Y</t>
+  </si>
+  <si>
+    <t>Spring hooks</t>
+  </si>
+  <si>
+    <t>Bought with the exhaust spings</t>
+  </si>
+  <si>
+    <t>4 tubes et coudes</t>
+  </si>
+  <si>
+    <t>1 anneaux pr ressorts</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2 anneaux pr ressorts</t>
+  </si>
+  <si>
+    <t>5 tubes et coudes</t>
+  </si>
+  <si>
+    <t>9 tubes et coudes</t>
+  </si>
+  <si>
+    <t>3 anneaux pr ressorts</t>
+  </si>
+  <si>
+    <t>3 tubes et coudes</t>
+  </si>
+  <si>
+    <t>1 tubes et coudes</t>
+  </si>
+  <si>
+    <t>longueur d'une soudure</t>
+  </si>
+  <si>
+    <t>Diamètre header</t>
+  </si>
+  <si>
+    <t>Diamètre 1st tubing</t>
+  </si>
+  <si>
+    <t>Diamètre 2nd tubing</t>
+  </si>
+  <si>
+    <t>longueur totale soudure</t>
+  </si>
+  <si>
+    <t>Tubing cut to do Y collector</t>
+  </si>
+  <si>
+    <t>Preparing before welding the Y collector</t>
+  </si>
+  <si>
+    <t>Welding the two parts of the Y collector</t>
+  </si>
+  <si>
+    <t>raccord Y-tube</t>
+  </si>
+  <si>
+    <t>To do the Y collector</t>
+  </si>
+  <si>
+    <t>Welding the connection tube to the Y collector</t>
+  </si>
+  <si>
+    <t>Preparing before welding the connection tube</t>
+  </si>
+  <si>
+    <r>
+      <t>Connection to other parts of exhaust (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l=30mm??</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Metrology of the exhaust flange</t>
+  </si>
+  <si>
+    <t>Programming the exhaust flange machining</t>
+  </si>
+  <si>
+    <t>Metrology of the flat-bottomed</t>
+  </si>
+  <si>
+    <t>Programming the flat-bottomed machining</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>Programming the inferior plate machining</t>
+  </si>
+  <si>
+    <t>Metrology of the inferior plate</t>
+  </si>
+  <si>
+    <t>Programming the front stop plate machining</t>
+  </si>
+  <si>
+    <t>Metrology of the front stop plate</t>
+  </si>
+  <si>
+    <t>Programming the rear stop plate machining</t>
+  </si>
+  <si>
+    <t>Metrology of the rear stop plate</t>
+  </si>
+  <si>
+    <t>Programming the medium plate machining</t>
+  </si>
+  <si>
+    <t>Metrology of the medium plate</t>
+  </si>
+  <si>
+    <t>Metrology of the superior plate</t>
+  </si>
+  <si>
+    <t>Programming the superior plate machining</t>
+  </si>
+  <si>
+    <t>Laser cut setup, install and remove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,6 +1112,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1074,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1116,6 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,27 +1569,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1627,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
@@ -1476,7 +1650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -1499,7 +1673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
@@ -1522,7 +1696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
@@ -1545,7 +1719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
@@ -1568,7 +1742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
@@ -1591,7 +1765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
@@ -1614,7 +1788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1637,7 +1811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1647,7 +1821,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1660,7 +1834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
@@ -1683,30 +1857,30 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F13" s="4">
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I13">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1725,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
@@ -1748,7 +1922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -1771,7 +1945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -1794,7 +1968,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -1817,11 +1991,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>35</v>
@@ -1840,11 +2014,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>35</v>
@@ -1863,7 +2037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -1879,14 +2053,14 @@
         <v>2</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -1896,20 +2070,20 @@
         <v>35</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1928,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
@@ -1951,7 +2125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
@@ -1974,7 +2148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
@@ -1997,7 +2171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
@@ -2020,7 +2194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
@@ -2043,7 +2217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
@@ -2066,7 +2240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
@@ -2089,7 +2263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
@@ -2114,29 +2288,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;1#&amp;"Arial"&amp;10&amp;K000000Confidential C</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:XFD141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2162,7 +2343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>93</v>
       </c>
@@ -2176,7 +2357,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>89</v>
@@ -2191,11 +2372,8 @@
       <c r="H3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2203,19 +2381,18 @@
         <v>91</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>153</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
       <c r="H4" s="8"/>
-      <c r="J4" s="13">
-        <f t="shared" ref="J4:J9" si="0">LEN(F4)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2223,19 +2400,18 @@
         <v>91</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>192</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
       <c r="H5" s="8"/>
-      <c r="J5" s="13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2243,19 +2419,18 @@
         <v>91</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="8"/>
-      <c r="J6" s="13">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2263,21 +2438,18 @@
         <v>91</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G7" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="J7" s="13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -2285,19 +2457,18 @@
         <v>91</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" s="9"/>
+        <v>158</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1</v>
+      </c>
       <c r="H8" s="8"/>
-      <c r="J8" s="13">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2305,19 +2476,18 @@
         <v>91</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
       <c r="H9" s="8"/>
-      <c r="J9" s="13">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2325,61 +2495,56 @@
         <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>160</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="J10" s="13">
-        <f>LEN(F13)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>123</v>
+      <c r="E11" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="9"/>
+        <v>183</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="J11" s="13">
-        <f t="shared" ref="J11:J12" si="1">LEN(F11)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>137</v>
+      <c r="E12" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G12" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="J12" s="13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2387,21 +2552,18 @@
         <v>91</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="G13" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="J13" s="13">
-        <f>LEN(F10)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2409,19 +2571,18 @@
         <v>91</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>161</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
       <c r="H14" s="8"/>
-      <c r="J14" s="13">
-        <f t="shared" ref="J14:J23" si="2">LEN(F14)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2429,21 +2590,18 @@
         <v>91</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="J15" s="13">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2451,19 +2609,18 @@
         <v>91</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="13">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2471,85 +2628,75 @@
         <v>91</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="J17" s="13">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
       <c r="H18" s="8"/>
-      <c r="J18" s="13">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="G19" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="J19" s="13">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>103</v>
+      <c r="E20" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="G20" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="J20" s="13">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="13"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2557,43 +2704,45 @@
         <v>92</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="G21" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="J21" s="13">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="13"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>111</v>
+      <c r="E22" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="9">
-        <v>8</v>
+        <v>204</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="J22" s="13">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" t="s">
+        <v>283</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2601,21 +2750,26 @@
         <v>92</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="G23" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="J23" s="13">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>34</v>
+      </c>
+      <c r="L23">
+        <v>34</v>
+      </c>
+      <c r="M23" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2623,21 +2777,18 @@
         <v>92</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="12">
+        <v>255</v>
+      </c>
+      <c r="G24" s="9">
         <v>1</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="J24" s="13">
-        <f>LEN(F22)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2645,21 +2796,18 @@
         <v>92</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="G25" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="J25" s="13">
-        <f t="shared" ref="J25:J121" si="3">LEN(F25)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2667,85 +2815,97 @@
         <v>92</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="J26" s="13">
-        <f>LEN(F26)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G27" s="9">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="J27" s="13">
-        <f>LEN(F27)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>266</v>
+      </c>
+      <c r="K27" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" t="s">
+        <v>281</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="G28" s="9">
-        <v>2</v>
+        <v>209</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="J28" s="13">
-        <f>LEN(F28)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="J29" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f>PI()*$K$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M29" s="13">
+        <f>K29*L29</f>
+        <v>106.81415022205297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2753,19 +2913,31 @@
         <v>90</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="8"/>
+        <v>215</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
       <c r="H30" s="8"/>
-      <c r="J30" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <f>PI()*$K$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M30" s="13">
+        <f t="shared" ref="M30:M31" si="0">K30*L30</f>
+        <v>320.44245066615895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2773,59 +2945,68 @@
         <v>90</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="8"/>
+        <v>211</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1</v>
+      </c>
       <c r="H31" s="8"/>
-      <c r="J31" s="13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="M31" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="8"/>
+        <v>234</v>
+      </c>
+      <c r="G32" s="9">
+        <v>1</v>
+      </c>
       <c r="H32" s="8"/>
-      <c r="J32" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
       <c r="H33" s="8"/>
-      <c r="J33" s="13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2836,16 +3017,15 @@
         <v>135</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G34" s="9"/>
+        <v>235</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
       <c r="H34" s="8"/>
-      <c r="J34" s="13">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2853,19 +3033,18 @@
         <v>91</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
       <c r="H35" s="8"/>
-      <c r="J35" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2873,19 +3052,18 @@
         <v>91</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G36" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
       <c r="H36" s="8"/>
-      <c r="J36" s="13">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2893,99 +3071,103 @@
         <v>91</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G37" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
       <c r="H37" s="8"/>
-      <c r="J37" s="13">
-        <f t="shared" ref="J37:J38" si="4">LEN(F37)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>137</v>
+      <c r="E38" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
       <c r="H38" s="8"/>
-      <c r="J38" s="13">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>152</v>
+        <v>92</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G39" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
       <c r="H39" s="8"/>
-      <c r="J39" s="13">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="8"/>
-      <c r="J40" s="13">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" t="s">
+        <v>267</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2993,19 +3175,31 @@
         <v>90</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G42" s="8"/>
+        <v>209</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
       <c r="H42" s="8"/>
-      <c r="J42" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>230</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f>PI()*$K$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M42" s="13">
+        <f>K42*L42</f>
+        <v>106.81415022205297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3013,19 +3207,31 @@
         <v>90</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G43" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
       <c r="H43" s="8"/>
-      <c r="J43" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>277</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <f>PI()*$K$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M43" s="13">
+        <f t="shared" ref="M43:M44" si="1">K43*L43</f>
+        <v>854.51320177642378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3033,19 +3239,30 @@
         <v>90</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G44" s="8"/>
+        <v>214</v>
+      </c>
+      <c r="G44" s="8">
+        <v>1</v>
+      </c>
       <c r="H44" s="8"/>
-      <c r="J44" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>273</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+      <c r="M44" s="13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3053,19 +3270,18 @@
         <v>90</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
       <c r="H45" s="8"/>
-      <c r="J45" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3073,19 +3289,18 @@
         <v>90</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="G46" s="8"/>
+        <v>217</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
       <c r="H46" s="8"/>
-      <c r="J46" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3093,19 +3308,18 @@
         <v>90</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" s="8"/>
+        <v>218</v>
+      </c>
+      <c r="G47" s="8">
+        <v>1</v>
+      </c>
       <c r="H47" s="8"/>
-      <c r="J47" s="13">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3113,19 +3327,18 @@
         <v>90</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G48" s="8"/>
+        <v>219</v>
+      </c>
+      <c r="G48" s="8">
+        <v>1</v>
+      </c>
       <c r="H48" s="8"/>
-      <c r="J48" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48" s="13"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3133,39 +3346,37 @@
         <v>90</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G49" s="9"/>
+        <v>220</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
       <c r="H49" s="8"/>
-      <c r="J49" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G50" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="G50" s="8">
+        <v>1</v>
+      </c>
       <c r="H50" s="8"/>
-      <c r="J50" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3173,19 +3384,18 @@
         <v>91</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
       <c r="H51" s="8"/>
-      <c r="J51" s="13">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M51" s="13"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3193,19 +3403,18 @@
         <v>91</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G52" s="9"/>
+        <v>235</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
       <c r="H52" s="8"/>
-      <c r="J52" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M52" s="13"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3213,19 +3422,18 @@
         <v>91</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
       <c r="H53" s="8"/>
-      <c r="J53" s="13">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M53" s="13"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3233,19 +3441,18 @@
         <v>91</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G54" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
       <c r="H54" s="8"/>
-      <c r="J54" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3253,59 +3460,56 @@
         <v>91</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G55" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
       <c r="H55" s="8"/>
-      <c r="J55" s="13">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>152</v>
+      <c r="E56" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G56" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
       <c r="H56" s="8"/>
-      <c r="J56" s="13">
-        <f t="shared" ref="J56:J57" si="5">LEN(F56)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M56" s="13"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>100</v>
+        <v>270</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G57" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
       <c r="H57" s="8"/>
-      <c r="J57" s="13">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="7" t="s">
         <v>31</v>
@@ -3320,12 +3524,20 @@
       <c r="H58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>266</v>
+      </c>
+      <c r="K58" t="s">
+        <v>267</v>
+      </c>
+      <c r="L58" t="s">
+        <v>281</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3333,19 +3545,18 @@
         <v>90</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G59" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
       <c r="H59" s="8"/>
-      <c r="J59" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3353,19 +3564,31 @@
         <v>90</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G60" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
       <c r="H60" s="8"/>
-      <c r="J60" s="13">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>230</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <f>PI()*$K$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M60" s="13">
+        <f>K60*L60</f>
+        <v>106.81415022205297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3373,19 +3596,31 @@
         <v>90</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G61" s="9"/>
+        <v>246</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
       <c r="H61" s="8"/>
-      <c r="J61" s="13">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>272</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <f>PI()*$K$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M61" s="13">
+        <f t="shared" ref="M61:M62" si="2">K61*L61</f>
+        <v>320.44245066615895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3393,19 +3628,30 @@
         <v>90</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G62" s="9"/>
+        <v>221</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
       <c r="H62" s="8"/>
-      <c r="J62" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>273</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3413,19 +3659,18 @@
         <v>91</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G63" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
       <c r="H63" s="8"/>
-      <c r="J63" s="13">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M63" s="13"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3433,19 +3678,18 @@
         <v>91</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
       <c r="H64" s="8"/>
-      <c r="J64" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M64" s="13"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3453,19 +3697,18 @@
         <v>91</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G65" s="9"/>
+        <v>235</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
       <c r="H65" s="8"/>
-      <c r="J65" s="13">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65" s="13"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3473,19 +3716,18 @@
         <v>91</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G66" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
       <c r="H66" s="8"/>
-      <c r="J66" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M66" s="13"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3493,19 +3735,18 @@
         <v>91</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G67" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
       <c r="H67" s="8"/>
-      <c r="J67" s="13">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67" s="13"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3513,19 +3754,18 @@
         <v>91</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G68" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
       <c r="H68" s="8"/>
-      <c r="J68" s="13">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68" s="13"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3536,56 +3776,62 @@
         <v>100</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G69" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
       <c r="H69" s="8"/>
-      <c r="J69" s="13">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
+      <c r="M69" s="13"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="M70" s="13"/>
+    </row>
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7" t="s">
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J70" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="8"/>
-      <c r="J71" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>266</v>
+      </c>
+      <c r="K71" t="s">
+        <v>267</v>
+      </c>
+      <c r="L71" t="s">
+        <v>281</v>
+      </c>
+      <c r="M71" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3593,19 +3839,18 @@
         <v>90</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G72" s="9"/>
+        <v>209</v>
+      </c>
+      <c r="G72" s="9">
+        <v>1</v>
+      </c>
       <c r="H72" s="8"/>
-      <c r="J72" s="13">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M72" s="13"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3613,19 +3858,31 @@
         <v>90</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G73" s="9"/>
+        <v>222</v>
+      </c>
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
       <c r="H73" s="8"/>
-      <c r="J73" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>230</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <f>PI()*$K$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M73" s="13">
+        <f>K73*L73</f>
+        <v>106.81415022205297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3633,19 +3890,31 @@
         <v>90</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G74" s="9"/>
+        <v>223</v>
+      </c>
+      <c r="G74" s="9">
+        <v>1</v>
+      </c>
       <c r="H74" s="8"/>
-      <c r="J74" s="13">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>276</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <f>PI()*$K$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M74" s="13">
+        <f t="shared" ref="M74:M75" si="3">K74*L74</f>
+        <v>427.25660088821189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3653,39 +3922,49 @@
         <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G75" s="9"/>
+      <c r="G75" s="9">
+        <v>1</v>
+      </c>
       <c r="H75" s="8"/>
-      <c r="J75" s="13">
+      <c r="J75" t="s">
+        <v>273</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>10</v>
+      </c>
+      <c r="M75" s="13">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>135</v>
+        <v>90</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="G76" s="9"/>
+        <v>221</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
       <c r="H76" s="8"/>
-      <c r="J76" s="13">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M76" s="13"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -3693,19 +3972,18 @@
         <v>91</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G77" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1</v>
+      </c>
       <c r="H77" s="8"/>
-      <c r="J77" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M77" s="13"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -3713,19 +3991,18 @@
         <v>91</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G78" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G78" s="9">
+        <v>1</v>
+      </c>
       <c r="H78" s="8"/>
-      <c r="J78" s="13">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M78" s="13"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -3733,19 +4010,18 @@
         <v>91</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G79" s="9"/>
+        <v>235</v>
+      </c>
+      <c r="G79" s="9">
+        <v>1</v>
+      </c>
       <c r="H79" s="8"/>
-      <c r="J79" s="13">
-        <f t="shared" ref="J79:J80" si="6">LEN(F79)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M79" s="13"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -3753,19 +4029,18 @@
         <v>91</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G80" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1</v>
+      </c>
       <c r="H80" s="8"/>
-      <c r="J80" s="13">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M80" s="13"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3773,99 +4048,103 @@
         <v>91</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G81" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
       <c r="H81" s="8"/>
-      <c r="J81" s="13">
-        <f t="shared" ref="J81:J82" si="7">LEN(F81)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M81" s="13"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G82" s="9">
+        <v>1</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="M82" s="13"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="8"/>
-      <c r="J82" s="13">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F83" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="H83" s="8"/>
+      <c r="M83" s="13"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G84" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1</v>
+      </c>
       <c r="H84" s="8"/>
-      <c r="J84" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="8"/>
-      <c r="J85" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M84" s="13"/>
+    </row>
+    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" t="s">
+        <v>266</v>
+      </c>
+      <c r="K85" t="s">
+        <v>267</v>
+      </c>
+      <c r="L85" t="s">
+        <v>281</v>
+      </c>
+      <c r="M85" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3873,19 +4152,18 @@
         <v>90</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G86" s="9"/>
+        <v>225</v>
+      </c>
+      <c r="G86" s="9">
+        <v>1</v>
+      </c>
       <c r="H86" s="8"/>
-      <c r="J86" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M86" s="13"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -3893,99 +4171,145 @@
         <v>90</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1</v>
+      </c>
       <c r="H87" s="8"/>
-      <c r="J87" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>274</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <f>PI()*$L$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M87" s="13">
+        <f>K87*L87</f>
+        <v>106.81415022205297</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>135</v>
+        <v>90</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G88" s="9"/>
+        <v>219</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
       <c r="H88" s="8"/>
-      <c r="J88" s="13">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>272</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <f>PI()*$L$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M88" s="13">
+        <f t="shared" ref="M88:M89" si="4">K88*L88</f>
+        <v>427.25660088821189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>123</v>
+        <v>90</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G89" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1</v>
+      </c>
       <c r="H89" s="8"/>
-      <c r="J89" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>275</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>10</v>
+      </c>
+      <c r="M89" s="13">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>137</v>
+        <v>90</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G90" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="G90" s="9">
+        <v>2</v>
+      </c>
       <c r="H90" s="8"/>
-      <c r="J90" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>289</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <f>PI()*$L$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M90" s="13">
+        <f>K90*L90</f>
+        <v>213.62830044410595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>152</v>
+        <v>90</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G91" s="9"/>
+        <v>293</v>
+      </c>
+      <c r="G91" s="9">
+        <v>2</v>
+      </c>
       <c r="H91" s="8"/>
-      <c r="J91" s="13">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M91" s="13"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -3993,59 +4317,56 @@
         <v>91</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G92" s="9"/>
+        <v>286</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
       <c r="H92" s="8"/>
-      <c r="J92" s="13">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M92" s="13"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="8"/>
+      <c r="M93" s="13"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G94" s="9"/>
+        <v>288</v>
+      </c>
+      <c r="G94" s="9">
+        <v>1</v>
+      </c>
       <c r="H94" s="8"/>
-      <c r="J94" s="13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M94" s="13"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4053,19 +4374,18 @@
         <v>91</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G95" s="9"/>
+        <v>292</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
       <c r="H95" s="8"/>
-      <c r="J95" s="13">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M95" s="13"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4073,19 +4393,18 @@
         <v>91</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G96" s="9"/>
+        <v>291</v>
+      </c>
+      <c r="G96" s="9">
+        <v>1</v>
+      </c>
       <c r="H96" s="8"/>
-      <c r="J96" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96" s="13"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4093,19 +4412,18 @@
         <v>91</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G97" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
       <c r="H97" s="8"/>
-      <c r="J97" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97" s="13"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4113,268 +4431,305 @@
         <v>91</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G98" s="9">
+        <v>1</v>
+      </c>
       <c r="H98" s="8"/>
-      <c r="J98" s="13">
-        <f t="shared" ref="J98:J99" si="8">LEN(F98)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98" s="13"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E99" s="9" t="s">
-        <v>100</v>
+      <c r="E99" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G99" s="9"/>
+        <v>268</v>
+      </c>
+      <c r="G99" s="9">
+        <v>1</v>
+      </c>
       <c r="H99" s="8"/>
-      <c r="J99" s="13">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J100" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99" s="13"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100" s="8"/>
+      <c r="M100" s="13"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G101" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
       <c r="H101" s="8"/>
-      <c r="J101" s="13">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101" s="13"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G102" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
       <c r="H102" s="8"/>
-      <c r="J102" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102" s="13"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G103" s="9"/>
+        <v>236</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
       <c r="H103" s="8"/>
-      <c r="J103" s="13">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103" s="13"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>135</v>
+        <v>92</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G104" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="G104" s="9">
+        <v>2</v>
+      </c>
       <c r="H104" s="8"/>
-      <c r="J104" s="13">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="8"/>
-      <c r="J105" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104" s="13"/>
+    </row>
+    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" t="s">
+        <v>266</v>
+      </c>
+      <c r="K105" t="s">
+        <v>267</v>
+      </c>
+      <c r="L105" t="s">
+        <v>281</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>137</v>
+        <v>90</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G106" s="9"/>
+        <v>227</v>
+      </c>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
       <c r="H106" s="8"/>
-      <c r="J106" s="13">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106" s="13"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>152</v>
+        <v>90</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G107" s="9"/>
+        <v>269</v>
+      </c>
+      <c r="G107" s="9">
+        <v>2</v>
+      </c>
       <c r="H107" s="8"/>
-      <c r="J107" s="13">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J107" t="s">
+        <v>274</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>200</v>
+      </c>
+      <c r="M107" s="13">
+        <f>K107*L107</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G108" s="9"/>
+        <v>293</v>
+      </c>
+      <c r="G108" s="9">
+        <v>2</v>
+      </c>
       <c r="H108" s="8"/>
-      <c r="J108" s="13">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J109" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K109" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J108" t="s">
+        <v>280</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <f>PI()*$L$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M108" s="13">
+        <f t="shared" ref="M108:M109" si="5">K108*L108</f>
+        <v>106.81415022205297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="J109" t="s">
+        <v>273</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>10</v>
+      </c>
+      <c r="M109" s="13">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" s="9"/>
+        <v>287</v>
+      </c>
+      <c r="G110" s="9">
+        <v>1</v>
+      </c>
       <c r="H110" s="8"/>
-      <c r="J110" s="13">
-        <f t="shared" si="3"/>
-        <v>24</v>
+      <c r="J110" t="s">
+        <v>289</v>
       </c>
       <c r="K110">
-        <v>3388</v>
-      </c>
-      <c r="L110" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <f>PI()*$L$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M110" s="13">
+        <f>K110*L110</f>
+        <v>213.62830044410595</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -4382,44 +4737,36 @@
         <v>91</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G111" s="9"/>
+        <v>288</v>
+      </c>
+      <c r="G111" s="9">
+        <v>1</v>
+      </c>
       <c r="H111" s="8"/>
-      <c r="J111" s="13">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="L111" s="14"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E112" s="9" t="s">
-        <v>122</v>
+      <c r="E112" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G112" s="9"/>
+        <v>292</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1</v>
+      </c>
       <c r="H112" s="8"/>
-      <c r="J112" s="13">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="K112">
-        <v>353</v>
-      </c>
-      <c r="L112" s="14"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112" s="13"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -4427,151 +4774,130 @@
         <v>91</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G113" s="9"/>
+        <v>291</v>
+      </c>
+      <c r="G113" s="9">
+        <v>1</v>
+      </c>
       <c r="H113" s="8"/>
-      <c r="J113" s="13">
-        <f t="shared" ref="J113:J114" si="9">LEN(F113)</f>
-        <v>17</v>
-      </c>
-      <c r="L113" s="14"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113" s="13"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E114" s="9" t="s">
-        <v>100</v>
+      <c r="E114" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G114" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1</v>
+      </c>
       <c r="H114" s="8"/>
-      <c r="J114" s="13">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="L114" s="14"/>
-    </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J115" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="14"/>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J116" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="14"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1</v>
+      </c>
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
+      <c r="H116" s="8"/>
+      <c r="M116" s="13"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G117" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="G117" s="9">
+        <v>1</v>
+      </c>
       <c r="H117" s="8"/>
-      <c r="J117" s="13">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="K117">
-        <v>12300</v>
-      </c>
-      <c r="L117" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="13"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="8" t="s">
         <v>135</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G118" s="9"/>
+        <v>244</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1</v>
+      </c>
       <c r="H118" s="8"/>
-      <c r="J118" s="13">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="L118" s="14"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118" s="13"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>142</v>
+      <c r="E119" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G119" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="G119" s="9">
+        <v>1</v>
+      </c>
       <c r="H119" s="8"/>
-      <c r="J119" s="13">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="L119" s="14"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119" s="13"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -4579,45 +4905,40 @@
         <v>91</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G120" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" s="8"/>
-      <c r="J120" s="13">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="L120" s="14"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120" s="13"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G121" s="9"/>
+        <v>271</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1</v>
+      </c>
       <c r="H121" s="8"/>
-      <c r="J121" s="13">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="L121" s="14"/>
-    </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M121" s="13"/>
+    </row>
+    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="7"/>
       <c r="B122" s="7" t="s">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>35</v>
@@ -4627,104 +4948,870 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="J122" s="13">
-        <f t="shared" ref="J122:J125" si="10">LEN(F122)</f>
-        <v>0</v>
-      </c>
-      <c r="L122" s="14"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J122" t="s">
+        <v>266</v>
+      </c>
+      <c r="K122" t="s">
+        <v>267</v>
+      </c>
+      <c r="L122" t="s">
+        <v>281</v>
+      </c>
+      <c r="M122" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G123" s="9"/>
+        <v>228</v>
+      </c>
+      <c r="G123" s="9">
+        <v>1</v>
+      </c>
       <c r="H123" s="8"/>
-      <c r="J123" s="13">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="K123">
-        <v>3375.5</v>
-      </c>
-      <c r="L123" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123" s="13"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G124" s="9"/>
+        <v>229</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1</v>
+      </c>
       <c r="H124" s="8"/>
-      <c r="J124" s="13">
-        <f t="shared" si="10"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J124" t="s">
+        <v>274</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>300</v>
+      </c>
+      <c r="M124" s="13">
+        <f>K124*L124</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="F125" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G125" s="9">
+        <v>1</v>
+      </c>
+      <c r="H125" s="8"/>
+      <c r="J125" t="s">
+        <v>279</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <f>PI()*$M$23</f>
+        <v>160.22122533307945</v>
+      </c>
+      <c r="M125" s="13">
+        <f t="shared" ref="M125:M126" si="6">K125*L125</f>
+        <v>480.66367599923831</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G126" s="9">
+        <v>2</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="J126" t="s">
+        <v>278</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>10</v>
+      </c>
+      <c r="M126" s="13">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G127" s="9">
+        <v>2</v>
+      </c>
+      <c r="H127" s="8"/>
+      <c r="J127" t="s">
+        <v>289</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <f>PI()*$L$23</f>
+        <v>106.81415022205297</v>
+      </c>
+      <c r="M127" s="13">
+        <f>K127*L127</f>
+        <v>213.62830044410595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G128" s="9">
+        <v>1</v>
+      </c>
+      <c r="H128" s="8"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G129" s="9">
+        <v>1</v>
+      </c>
+      <c r="H129" s="8"/>
+      <c r="M129" s="13"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G130" s="9">
+        <v>1</v>
+      </c>
+      <c r="H130" s="8"/>
+      <c r="M130" s="13"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G131" s="9">
+        <v>1</v>
+      </c>
+      <c r="H131" s="8"/>
+      <c r="M131" s="13"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G132" s="9">
+        <v>1</v>
+      </c>
+      <c r="H132" s="8"/>
+      <c r="M132" s="13"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G133" s="9">
+        <v>1</v>
+      </c>
+      <c r="H133" s="8"/>
+      <c r="M133" s="13"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G134" s="9">
+        <v>1</v>
+      </c>
+      <c r="H134" s="8"/>
+      <c r="M134" s="13"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G135" s="9">
+        <v>1</v>
+      </c>
+      <c r="H135" s="8"/>
+      <c r="M135" s="13"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G136" s="9">
+        <v>1</v>
+      </c>
+      <c r="H136" s="8"/>
+      <c r="M136" s="13"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G137" s="9">
+        <v>1</v>
+      </c>
+      <c r="H137" s="8"/>
+      <c r="M137" s="13"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G138" s="9">
+        <v>1</v>
+      </c>
+      <c r="H138" s="8"/>
+      <c r="M138" s="13"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="8"/>
-      <c r="J125" s="13">
-        <f t="shared" si="10"/>
-        <v>23</v>
-      </c>
+      <c r="G139" s="9">
+        <v>1</v>
+      </c>
+      <c r="H139" s="8"/>
+      <c r="M139" s="13"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G140" s="9">
+        <v>3</v>
+      </c>
+      <c r="H140" s="8"/>
+      <c r="M140" s="13"/>
+    </row>
+    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J141" t="s">
+        <v>257</v>
+      </c>
+      <c r="M141" s="13"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G142" s="9">
+        <v>1</v>
+      </c>
+      <c r="H142" s="8"/>
+      <c r="J142">
+        <v>3388</v>
+      </c>
+      <c r="K142" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="M142" s="13"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G143" s="9">
+        <v>1</v>
+      </c>
+      <c r="H143" s="8"/>
+      <c r="K143" s="14"/>
+      <c r="M143" s="13"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G144" s="9">
+        <v>1</v>
+      </c>
+      <c r="H144" s="8"/>
+      <c r="K144" s="14"/>
+      <c r="M144" s="13"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G145" s="9">
+        <v>1</v>
+      </c>
+      <c r="H145" s="8"/>
+      <c r="J145">
+        <v>353</v>
+      </c>
+      <c r="K145" s="14"/>
+      <c r="M145" s="13"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G146" s="9">
+        <v>1</v>
+      </c>
+      <c r="H146" s="8"/>
+      <c r="K146" s="14"/>
+      <c r="M146" s="13"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G147" s="9">
+        <v>1</v>
+      </c>
+      <c r="H147" s="8"/>
+      <c r="K147" s="14"/>
+      <c r="M147" s="13"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G148" s="9">
+        <v>1</v>
+      </c>
+      <c r="H148" s="8"/>
+      <c r="K148" s="14"/>
+      <c r="M148" s="13"/>
+    </row>
+    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K149" s="14"/>
+      <c r="M149" s="13"/>
+    </row>
+    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K150" s="14"/>
+      <c r="M150" s="13"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G151" s="9">
+        <v>1</v>
+      </c>
+      <c r="H151" s="8"/>
+      <c r="J151">
+        <v>12300</v>
+      </c>
+      <c r="K151" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="M151" s="13"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G152" s="9">
+        <v>1</v>
+      </c>
+      <c r="H152" s="8"/>
+      <c r="K152" s="14"/>
+      <c r="M152" s="13"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G153" s="9">
+        <v>1</v>
+      </c>
+      <c r="H153" s="8"/>
+      <c r="K153" s="14"/>
+      <c r="M153" s="13"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G154" s="9">
+        <v>1</v>
+      </c>
+      <c r="H154" s="8"/>
+      <c r="K154" s="14"/>
+      <c r="M154" s="13"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G155" s="9">
+        <v>1</v>
+      </c>
+      <c r="H155" s="8"/>
+      <c r="K155" s="14"/>
+      <c r="M155" s="13"/>
+    </row>
+    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="7"/>
+      <c r="B156" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K156" s="14"/>
+      <c r="M156" s="13"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G157" s="9">
+        <v>1</v>
+      </c>
+      <c r="H157" s="8"/>
+      <c r="J157">
+        <v>3375.5</v>
+      </c>
+      <c r="K157" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="M157" s="13"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1</v>
+      </c>
+      <c r="H158" s="8"/>
+      <c r="K158" s="14"/>
+      <c r="M158" s="13"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G159" s="9">
+        <v>1</v>
+      </c>
+      <c r="H159" s="8"/>
+      <c r="M159" s="13"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G160" s="9">
+        <v>1</v>
+      </c>
+      <c r="H160" s="8"/>
+      <c r="M160" s="13"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G161" s="9">
+        <v>1</v>
+      </c>
+      <c r="H161" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;1#&amp;"Arial"&amp;10&amp;K000000Confidential C</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="B34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4750,7 +5837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -4763,8 +5850,11 @@
       <c r="H2" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>89</v>
@@ -4780,7 +5870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4788,19 +5878,21 @@
         <v>90</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
       <c r="H4" s="8"/>
-      <c r="J4" s="14">
-        <f>LEN(F4)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4808,19 +5900,21 @@
         <v>91</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
       <c r="H5" s="8"/>
-      <c r="J5" s="14">
-        <f t="shared" ref="J5:J12" si="0">LEN(F5)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4828,19 +5922,19 @@
         <v>91</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="8"/>
-      <c r="J6" s="14">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="15"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4848,21 +5942,18 @@
         <v>91</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G7" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="J7" s="14">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4870,21 +5961,18 @@
         <v>91</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G8" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="J8" s="14">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4892,19 +5980,21 @@
         <v>91</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
       <c r="H9" s="8"/>
-      <c r="J9" s="14">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4912,19 +6002,18 @@
         <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="J10" s="14">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4932,21 +6021,18 @@
         <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G11" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H11" s="8"/>
-      <c r="J11" s="14">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4954,21 +6040,18 @@
         <v>91</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G12" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="J12" s="14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -4976,19 +6059,18 @@
         <v>91</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>172</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
       <c r="H13" s="8"/>
-      <c r="J13" s="14">
-        <f>LEN(F16)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4996,21 +6078,18 @@
         <v>91</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" s="11">
-        <v>6</v>
+        <v>201</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="J14" s="14">
-        <f t="shared" ref="J14:J23" si="1">LEN(F14)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -5018,19 +6097,18 @@
         <v>91</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>173</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1</v>
+      </c>
       <c r="H15" s="8"/>
-      <c r="J15" s="14">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -5038,19 +6116,18 @@
         <v>91</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="14">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -5058,21 +6135,18 @@
         <v>91</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G17" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="J17" s="14">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -5080,19 +6154,18 @@
         <v>91</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
       <c r="H18" s="8"/>
-      <c r="J18" s="14">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -5100,21 +6173,18 @@
         <v>91</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G19" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="J19" s="14">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -5122,21 +6192,18 @@
         <v>91</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="J20" s="14">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -5144,18 +6211,18 @@
         <v>91</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5163,19 +6230,18 @@
         <v>91</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="G22" s="9"/>
+        <v>190</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1</v>
+      </c>
       <c r="H22" s="8"/>
-      <c r="J22" s="14">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5183,21 +6249,18 @@
         <v>91</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G23" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="J23" s="14">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -5205,21 +6268,18 @@
         <v>91</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="J24" s="14">
-        <f t="shared" ref="J24:J59" si="2">LEN(F24)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -5227,21 +6287,18 @@
         <v>91</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G25" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="J25" s="14">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -5252,18 +6309,15 @@
         <v>105</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G26" s="9">
         <v>10</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="J26" s="14">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -5271,21 +6325,18 @@
         <v>92</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G27" s="9">
         <v>10</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="J27" s="14">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -5293,21 +6344,18 @@
         <v>92</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G28" s="9">
         <v>20</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="J28" s="14">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -5318,18 +6366,15 @@
         <v>105</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G29" s="9">
         <v>18</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="J29" s="14">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -5337,21 +6382,18 @@
         <v>92</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G30" s="9">
         <v>18</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="J30" s="14">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5359,21 +6401,18 @@
         <v>92</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>206</v>
       </c>
       <c r="G31" s="9">
         <v>36</v>
       </c>
       <c r="H31" s="8"/>
-      <c r="J31" s="14">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -5384,18 +6423,15 @@
         <v>105</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G32" s="11">
         <v>6</v>
       </c>
       <c r="H32" s="8"/>
-      <c r="J32" s="14">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -5403,21 +6439,18 @@
         <v>92</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="G33" s="9">
         <v>4</v>
       </c>
       <c r="H33" s="8"/>
-      <c r="J33" s="14">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>75</v>
@@ -5432,12 +6465,9 @@
       <c r="H34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="7" t="s">
         <v>34</v>
@@ -5452,12 +6482,9 @@
       <c r="H35" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5465,187 +6492,173 @@
         <v>90</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="9"/>
+        <v>124</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
       <c r="H36" s="8"/>
-      <c r="J36" s="14">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="K36">
+      <c r="J36">
         <v>42400</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>121</v>
+      <c r="E37" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="9"/>
+        <v>297</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
       <c r="H37" s="8"/>
-      <c r="J37" s="14">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37" s="14"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>122</v>
+      <c r="E38" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
       <c r="H38" s="8"/>
-      <c r="J38" s="14">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K38">
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="J39">
         <v>1240</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="8"/>
-      <c r="J42" s="14">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="8"/>
-      <c r="J43" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>145</v>
+        <v>90</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G44" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="8"/>
-      <c r="J44" s="14">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J44" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -5653,123 +6666,114 @@
         <v>91</v>
       </c>
       <c r="E45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="G45" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="8"/>
-      <c r="J45" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G46" s="9"/>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
       <c r="H46" s="8"/>
-      <c r="J46" s="14">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="14">
-        <f t="shared" ref="J47:J52" si="3">LEN(F47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" s="9">
+        <v>2</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="M47" s="14"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G48" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
       <c r="H48" s="8"/>
-      <c r="J48" s="14">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="8"/>
-      <c r="J49" s="14">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>145</v>
+        <v>90</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G50" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="8"/>
-      <c r="J50" s="14">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J50" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5777,301 +6781,336 @@
         <v>91</v>
       </c>
       <c r="E51" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="G51" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="8"/>
-      <c r="J51" s="14">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
       <c r="H52" s="8"/>
-      <c r="J52" s="14">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="J53" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" s="9">
+        <v>2</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G54" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1</v>
+      </c>
       <c r="H54" s="8"/>
-      <c r="J54" s="14">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="8"/>
-      <c r="J55" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>145</v>
+        <v>90</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="G56" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="J56" s="14">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J56" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>142</v>
+      <c r="E57" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G57" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
       <c r="H57" s="8"/>
-      <c r="J57" s="14">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>144</v>
+      <c r="E58" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="G58" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="8"/>
-      <c r="J58" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>145</v>
+      <c r="E59" s="11" t="s">
+        <v>139</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G59" s="9"/>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
       <c r="H59" s="8"/>
-      <c r="J59" s="14">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J60" s="14">
-        <f>LEN(F60)</f>
-        <v>0</v>
-      </c>
-      <c r="K60" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="9">
+        <v>2</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
       <c r="H61" s="8"/>
-      <c r="J61" s="14">
-        <f>LEN(F61)</f>
-        <v>23</v>
-      </c>
-      <c r="K61">
-        <v>465</v>
-      </c>
-      <c r="L61" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="8"/>
-      <c r="J62" s="14">
-        <f>LEN(F62)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J62" t="s">
+        <v>257</v>
+      </c>
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F63" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="J63">
+        <v>465</v>
+      </c>
+      <c r="K63" t="s">
+        <v>259</v>
+      </c>
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="8"/>
-      <c r="J63" s="14">
-        <f>LEN(F63)</f>
-        <v>13</v>
-      </c>
-      <c r="K63">
-        <v>117</v>
-      </c>
+      <c r="F65" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G65" s="9">
+        <v>2</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;1#&amp;"Arial"&amp;10&amp;K000000Confidential C</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -6097,7 +7136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>98</v>
       </c>
@@ -6110,8 +7149,11 @@
       <c r="H2" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>89</v>
@@ -6127,7 +7169,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6135,19 +7177,20 @@
         <v>90</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
       <c r="H4" s="8"/>
-      <c r="J4">
-        <f t="shared" ref="J4:J19" si="0">LEN(F4)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6155,21 +7198,20 @@
         <v>90</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6177,19 +7219,20 @@
         <v>91</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
       <c r="H6" s="8"/>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6197,19 +7240,17 @@
         <v>91</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="9"/>
+        <v>198</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
       <c r="H7" s="8"/>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6217,21 +7258,17 @@
         <v>91</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G8" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6239,21 +7276,17 @@
         <v>91</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G9" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6261,19 +7294,20 @@
         <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>197</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6281,19 +7315,17 @@
         <v>91</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="9"/>
+        <v>176</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6301,21 +7333,17 @@
         <v>91</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G12" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -6323,21 +7351,17 @@
         <v>91</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G13" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H13" s="8"/>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -6345,19 +7369,17 @@
         <v>91</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
       <c r="H14" s="8"/>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6365,21 +7387,17 @@
         <v>91</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G15" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -6387,19 +7405,17 @@
         <v>91</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
       <c r="H16" s="8"/>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6407,21 +7423,17 @@
         <v>91</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6429,21 +7441,17 @@
         <v>91</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6451,21 +7459,17 @@
         <v>91</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6473,17 +7477,17 @@
         <v>91</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G20" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6494,18 +7498,14 @@
         <v>105</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G21" s="9">
         <v>9</v>
       </c>
       <c r="H21" s="8"/>
-      <c r="J21">
-        <f>LEN(F21)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6513,21 +7513,17 @@
         <v>92</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G22" s="9">
         <v>9</v>
       </c>
       <c r="H22" s="8"/>
-      <c r="J22">
-        <f>LEN(F22)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6535,21 +7531,17 @@
         <v>92</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G23" s="9">
         <v>18</v>
       </c>
       <c r="H23" s="8"/>
-      <c r="J23">
-        <f>LEN(F23)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6560,18 +7552,14 @@
         <v>105</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G24" s="9">
         <v>2</v>
       </c>
       <c r="H24" s="8"/>
-      <c r="J24">
-        <f t="shared" ref="J24:J26" si="1">LEN(F24)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6579,21 +7567,17 @@
         <v>92</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G25" s="9">
         <v>2</v>
       </c>
       <c r="H25" s="8"/>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6601,21 +7585,17 @@
         <v>92</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G26" s="9">
         <v>4</v>
       </c>
       <c r="H26" s="8"/>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6626,18 +7606,14 @@
         <v>105</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G27" s="9">
         <v>2</v>
       </c>
       <c r="H27" s="8"/>
-      <c r="J27">
-        <f t="shared" ref="J27:J53" si="2">LEN(F27)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -6645,21 +7621,17 @@
         <v>92</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G28" s="9">
         <v>2</v>
       </c>
       <c r="H28" s="8"/>
-      <c r="J28">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -6667,21 +7639,17 @@
         <v>92</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G29" s="9">
         <v>4</v>
       </c>
       <c r="H29" s="8"/>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -6689,21 +7657,17 @@
         <v>92</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
       </c>
       <c r="H30" s="8"/>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6714,18 +7678,14 @@
         <v>102</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" s="9">
         <v>2</v>
       </c>
       <c r="H31" s="8"/>
-      <c r="J31">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>50</v>
@@ -6740,15 +7700,11 @@
       <c r="H32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -6759,357 +7715,313 @@
         <v>104</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G33" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="G33" s="9">
+        <v>1</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="J33">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="K33">
         <v>4893</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>121</v>
+      <c r="E34" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="9"/>
+        <v>300</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1</v>
+      </c>
       <c r="H34" s="8"/>
-      <c r="J34">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>122</v>
+      <c r="E35" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
       <c r="H35" s="8"/>
-      <c r="J35">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K35">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
       <c r="H36" s="8"/>
       <c r="J36">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>150</v>
+      <c r="E37" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G37" s="9"/>
+        <v>301</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
       <c r="H37" s="8"/>
-      <c r="J37">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
       <c r="H39" s="8"/>
-      <c r="J39">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="K39">
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="8"/>
-      <c r="J40">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
       <c r="H41" s="8"/>
       <c r="J41">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K41">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>150</v>
+      <c r="E42" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G42" s="9"/>
+        <v>302</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1</v>
+      </c>
       <c r="H42" s="8"/>
-      <c r="J42">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1</v>
+      </c>
       <c r="H44" s="8"/>
       <c r="J44">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="K44">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>121</v>
+      <c r="E45" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="9"/>
+        <v>303</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
       <c r="H45" s="8"/>
-      <c r="J45">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>122</v>
+      <c r="E46" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
       <c r="H46" s="8"/>
-      <c r="J46">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K46">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="8"/>
-      <c r="J47">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="7" t="s">
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1</v>
+      </c>
+      <c r="H48" s="8"/>
       <c r="J48">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" s="9"/>
+        <v>304</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
       <c r="H49" s="8"/>
-      <c r="J49">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="K49">
-        <v>5704</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -7117,19 +8029,17 @@
         <v>91</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>121</v>
+        <v>310</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G50" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
       <c r="H50" s="8"/>
-      <c r="J50">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -7137,161 +8047,150 @@
         <v>91</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
       <c r="H51" s="8"/>
       <c r="J51">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="K51">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
       <c r="H52" s="8"/>
-      <c r="J52">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="G53" s="9"/>
+      <c r="E53" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
       <c r="H53" s="8"/>
-      <c r="J53">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" s="9"/>
+        <v>130</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1</v>
+      </c>
       <c r="H55" s="8"/>
       <c r="J55">
-        <f>LEN(F55)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56">
-        <f>LEN(F56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5704</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
       <c r="H57" s="8"/>
-      <c r="J57">
-        <f>LEN(F57)</f>
-        <v>23</v>
-      </c>
-      <c r="K57">
-        <v>4180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>121</v>
+      <c r="E58" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G58" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
       <c r="H58" s="8"/>
       <c r="J58">
-        <f>LEN(F58)</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -7299,22 +8198,17 @@
         <v>91</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" s="9"/>
+        <v>307</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
       <c r="H59" s="8"/>
-      <c r="J59">
-        <f>LEN(F59)</f>
-        <v>13</v>
-      </c>
-      <c r="K59">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7322,15 +8216,17 @@
         <v>91</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="G60" s="9"/>
+        <v>241</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
       <c r="H60" s="8"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7338,80 +8234,235 @@
         <v>91</v>
       </c>
       <c r="E61" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="8"/>
-      <c r="J61">
-        <f>LEN(F61)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62">
-        <f>LEN(F62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="9">
+        <v>1</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="J64">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="J67">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="J63">
-        <f>LEN(F63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7" t="s">
+    </row>
+    <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7" t="s">
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="J64">
-        <f>LEN(F64)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;R&amp;1#&amp;"Arial"&amp;10&amp;K000000Confidential C</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="314">
   <si>
     <t>System</t>
   </si>
@@ -1038,6 +1038,15 @@
   </si>
   <si>
     <t>Laser cut setup, install and remove</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Nb soudure</t>
+  </si>
+  <si>
+    <t>Nb tubes</t>
   </si>
 </sst>
 </file>
@@ -2299,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:XFD141"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5041,7 +5050,7 @@
         <v>160.22122533307945</v>
       </c>
       <c r="M125" s="13">
-        <f t="shared" ref="M125:M126" si="6">K125*L125</f>
+        <f>K125*L125</f>
         <v>480.66367599923831</v>
       </c>
     </row>
@@ -5072,7 +5081,7 @@
         <v>10</v>
       </c>
       <c r="M126" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="M125:M126" si="6">K126*L126</f>
         <v>30</v>
       </c>
     </row>
@@ -5143,6 +5152,12 @@
         <v>1</v>
       </c>
       <c r="H129" s="8"/>
+      <c r="K129" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L129" t="s">
+        <v>313</v>
+      </c>
       <c r="M129" s="13"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -5162,7 +5177,21 @@
         <v>1</v>
       </c>
       <c r="H130" s="8"/>
-      <c r="M130" s="13"/>
+      <c r="J130" t="s">
+        <v>311</v>
+      </c>
+      <c r="K130" s="13">
+        <f>SUM(K124:K125,K127,K107:K108,K110,K87:K88,K90,K73:K74,K60:K61,K42:K44,K29:K31)</f>
+        <v>41</v>
+      </c>
+      <c r="L130">
+        <f>SUM(K125,K108,K88,K74,K61,K43,K30,)</f>
+        <v>26</v>
+      </c>
+      <c r="M130" s="13">
+        <f>SUM(M124:M127,M107:M110,M87:M90,M73:M75,M60:M62,M42:M44,M29:M31)</f>
+        <v>4712.3447835490397</v>
+      </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>

--- a/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
+++ b/CR - Cost Report/BOM/EN/ENA0200_to_ENA0400.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="315">
   <si>
     <t>System</t>
   </si>
@@ -1047,6 +1047,9 @@
   </si>
   <si>
     <t>Nb tubes</t>
+  </si>
+  <si>
+    <t>Press operations</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
@@ -5081,7 +5084,7 @@
         <v>10</v>
       </c>
       <c r="M126" s="13">
-        <f t="shared" ref="M125:M126" si="6">K126*L126</f>
+        <f t="shared" ref="M126" si="6">K126*L126</f>
         <v>30</v>
       </c>
     </row>
@@ -5825,8 +5828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6714,7 +6717,7 @@
         <v>91</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>145</v>
@@ -6829,7 +6832,7 @@
         <v>91</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>145</v>
@@ -6944,7 +6947,7 @@
         <v>91</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>142</v>
+        <v>314</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>145</v>
@@ -7096,6 +7099,7 @@
       <c r="M65" s="14"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8" t="s">
